--- a/public/public/reglement_effet_images/reglement_effet_.xlsx
+++ b/public/public/reglement_effet_images/reglement_effet_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milaliyouness/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96965B4C-568F-3045-85D2-6B092EA252F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4812B574-E360-0C4D-9BF8-7C4476DE7279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{48475D44-FE51-FC48-808C-4EBEF807253A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16700" xr2:uid="{48475D44-FE51-FC48-808C-4EBEF807253A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,7 +521,7 @@
         <v>45338</v>
       </c>
       <c r="B2" s="1">
-        <v>128</v>
+        <v>23456</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -550,7 +550,7 @@
         <v>45337</v>
       </c>
       <c r="B3" s="1">
-        <v>129</v>
+        <v>23457</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -579,7 +579,7 @@
         <v>45337</v>
       </c>
       <c r="B4" s="1">
-        <v>130</v>
+        <v>23458</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -608,7 +608,7 @@
         <v>45342</v>
       </c>
       <c r="B5" s="1">
-        <v>131</v>
+        <v>23459</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -634,7 +634,7 @@
         <v>45336</v>
       </c>
       <c r="B6" s="1">
-        <v>132</v>
+        <v>23460</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -660,7 +660,7 @@
         <v>45337</v>
       </c>
       <c r="B7" s="1">
-        <v>133</v>
+        <v>23461</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -686,7 +686,7 @@
         <v>45343</v>
       </c>
       <c r="B8" s="1">
-        <v>134</v>
+        <v>23462</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -712,7 +712,7 @@
         <v>45344</v>
       </c>
       <c r="B9" s="1">
-        <v>135</v>
+        <v>23463</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -738,7 +738,7 @@
         <v>45344</v>
       </c>
       <c r="B10" s="1">
-        <v>136</v>
+        <v>23464</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -764,7 +764,7 @@
         <v>45330</v>
       </c>
       <c r="B11" s="1">
-        <v>137</v>
+        <v>23465</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
